--- a/Data/EUDA/Cannabis_detaille/sex_jamais_traite.xlsx
+++ b/Data/EUDA/Cannabis_detaille/sex_jamais_traite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>All.jamais.jamais</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>Males.jamais.jamais</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Males</t>
+          <t>Females.jamais.jamais</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Females</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Not known / missing</t>
+          <t>Not known / missing.jamais.jamais</t>
         </is>
       </c>
     </row>
@@ -472,18 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>666</v>
       </c>
       <c r="C2" t="n">
-        <v>666</v>
+        <v>525</v>
       </c>
       <c r="D2" t="n">
-        <v>525</v>
-      </c>
-      <c r="E2" t="n">
         <v>141</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -492,18 +484,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>1850</v>
       </c>
       <c r="C3" t="n">
-        <v>1850</v>
+        <v>1452</v>
       </c>
       <c r="D3" t="n">
-        <v>1452</v>
+        <v>381</v>
       </c>
       <c r="E3" t="n">
-        <v>381</v>
-      </c>
-      <c r="F3" t="n">
         <v>17</v>
       </c>
     </row>
@@ -514,18 +503,15 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>66</v>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
-      </c>
-      <c r="F4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -536,18 +522,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>288</v>
       </c>
       <c r="C5" t="n">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="D5" t="n">
-        <v>229</v>
-      </c>
-      <c r="E5" t="n">
         <v>59</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -556,18 +539,15 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>251</v>
       </c>
       <c r="C6" t="n">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="D6" t="n">
-        <v>211</v>
-      </c>
-      <c r="E6" t="n">
         <v>40</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -576,18 +556,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>539</v>
       </c>
       <c r="C7" t="n">
-        <v>539</v>
+        <v>409</v>
       </c>
       <c r="D7" t="n">
-        <v>409</v>
-      </c>
-      <c r="E7" t="n">
         <v>130</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -596,18 +573,15 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>1493</v>
       </c>
       <c r="C8" t="n">
-        <v>1493</v>
+        <v>1029</v>
       </c>
       <c r="D8" t="n">
-        <v>1029</v>
-      </c>
-      <c r="E8" t="n">
         <v>464</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -616,18 +590,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
-      </c>
-      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -636,18 +607,15 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
-      </c>
-      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -658,18 +626,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>10579</v>
       </c>
       <c r="C11" t="n">
-        <v>10579</v>
+        <v>8859</v>
       </c>
       <c r="D11" t="n">
-        <v>8859</v>
-      </c>
-      <c r="E11" t="n">
         <v>1720</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -678,18 +643,15 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>14981</v>
       </c>
       <c r="C12" t="n">
-        <v>14981</v>
+        <v>12159</v>
       </c>
       <c r="D12" t="n">
-        <v>12159</v>
+        <v>2781</v>
       </c>
       <c r="E12" t="n">
-        <v>2781</v>
-      </c>
-      <c r="F12" t="n">
         <v>41</v>
       </c>
     </row>
@@ -700,18 +662,15 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>684</v>
       </c>
       <c r="C13" t="n">
-        <v>684</v>
+        <v>529</v>
       </c>
       <c r="D13" t="n">
-        <v>529</v>
+        <v>154</v>
       </c>
       <c r="E13" t="n">
-        <v>154</v>
-      </c>
-      <c r="F13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,18 +681,15 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>1895</v>
       </c>
       <c r="C14" t="n">
-        <v>1895</v>
+        <v>1646</v>
       </c>
       <c r="D14" t="n">
-        <v>1646</v>
+        <v>237</v>
       </c>
       <c r="E14" t="n">
-        <v>237</v>
-      </c>
-      <c r="F14" t="n">
         <v>12</v>
       </c>
     </row>
@@ -744,18 +700,15 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>1463</v>
       </c>
       <c r="C15" t="n">
-        <v>1463</v>
+        <v>1119</v>
       </c>
       <c r="D15" t="n">
-        <v>1119</v>
+        <v>334</v>
       </c>
       <c r="E15" t="n">
-        <v>334</v>
-      </c>
-      <c r="F15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -766,18 +719,15 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>4194</v>
       </c>
       <c r="C16" t="n">
-        <v>4194</v>
+        <v>3629</v>
       </c>
       <c r="D16" t="n">
-        <v>3629</v>
-      </c>
-      <c r="E16" t="n">
         <v>565</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -786,18 +736,15 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>165</v>
       </c>
       <c r="C17" t="n">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D17" t="n">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
-      </c>
-      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -808,18 +755,15 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
-      </c>
-      <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -828,18 +772,15 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
-      </c>
-      <c r="E19" t="n">
         <v>11</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -848,18 +789,15 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>82</v>
       </c>
       <c r="C20" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D20" t="n">
-        <v>68</v>
-      </c>
-      <c r="E20" t="n">
         <v>14</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -868,18 +806,15 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>3625</v>
       </c>
       <c r="C21" t="n">
-        <v>3625</v>
+        <v>2889</v>
       </c>
       <c r="D21" t="n">
-        <v>2889</v>
+        <v>736</v>
       </c>
       <c r="E21" t="n">
-        <v>736</v>
-      </c>
-      <c r="F21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -890,18 +825,15 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022</v>
+        <v>970</v>
       </c>
       <c r="C22" t="n">
-        <v>970</v>
+        <v>737</v>
       </c>
       <c r="D22" t="n">
-        <v>737</v>
-      </c>
-      <c r="E22" t="n">
         <v>233</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -910,18 +842,15 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>648</v>
       </c>
       <c r="C23" t="n">
-        <v>648</v>
+        <v>523</v>
       </c>
       <c r="D23" t="n">
-        <v>523</v>
+        <v>118</v>
       </c>
       <c r="E23" t="n">
-        <v>118</v>
-      </c>
-      <c r="F23" t="n">
         <v>7</v>
       </c>
     </row>
@@ -932,18 +861,15 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>896</v>
       </c>
       <c r="C24" t="n">
-        <v>896</v>
+        <v>740</v>
       </c>
       <c r="D24" t="n">
-        <v>740</v>
-      </c>
-      <c r="E24" t="n">
         <v>156</v>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -952,18 +878,15 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>1606</v>
       </c>
       <c r="C25" t="n">
-        <v>1606</v>
+        <v>1420</v>
       </c>
       <c r="D25" t="n">
-        <v>1420</v>
+        <v>186</v>
       </c>
       <c r="E25" t="n">
-        <v>186</v>
-      </c>
-      <c r="F25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,18 +897,15 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>250</v>
       </c>
       <c r="C26" t="n">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="D26" t="n">
-        <v>225</v>
-      </c>
-      <c r="E26" t="n">
         <v>25</v>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -994,18 +914,15 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
         <v>2</v>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1014,18 +931,15 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>8529</v>
       </c>
       <c r="C28" t="n">
-        <v>8529</v>
+        <v>6554</v>
       </c>
       <c r="D28" t="n">
-        <v>6554</v>
+        <v>1966</v>
       </c>
       <c r="E28" t="n">
-        <v>1966</v>
-      </c>
-      <c r="F28" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1036,18 +950,15 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>1816</v>
       </c>
       <c r="C29" t="n">
-        <v>1816</v>
+        <v>1263</v>
       </c>
       <c r="D29" t="n">
-        <v>1263</v>
-      </c>
-      <c r="E29" t="n">
         <v>553</v>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1056,18 +967,15 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>669</v>
       </c>
       <c r="C30" t="n">
-        <v>669</v>
+        <v>617</v>
       </c>
       <c r="D30" t="n">
-        <v>617</v>
-      </c>
-      <c r="E30" t="n">
         <v>52</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1075,7 +983,6 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1087,7 +994,6 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1099,7 +1005,6 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
